--- a/biology/Botanique/Brunsvigia/Brunsvigia.xlsx
+++ b/biology/Botanique/Brunsvigia/Brunsvigia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brunsvigia est un genre qui regroupe des plantes à fleur de la famille des Amaryllidacées. Il comporte approximativement vingt espèces originaires de l'Afrique australe.
 Leurs bulbes poussent en hiver et entrent en dormance en été. Ils fleurissent généralement au début de l'automne. Les fleurs sont de couleur vive, rouges ou roses.
@@ -512,9 +524,11 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (6 Aug 2010)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (6 Aug 2010) :
 Brunsvigia bosmaniae F.M.Leight. (1932)
 Brunsvigia comptonii W.F.Barker (1948)
 Brunsvigia elandsmontana Snijman (2001)
@@ -533,7 +547,7 @@
 Brunsvigia radula (Jacq.) W.T.Aiton (1811)
 Brunsvigia radulosa Herb. (1837)
 Brunsvigia undulata F.M.Leight. (1934)
-Selon NCBI  (6 Aug 2010)[2] :
+Selon NCBI  (6 Aug 2010) :
 Brunsvigia bosmaniae
 Brunsvigia comptonii
 Brunsvigia gregaria
